--- a/2000.xlsx
+++ b/2000.xlsx
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,47 +416,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>13967775843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>13968737129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>13967793251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>13968761833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>13968707390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>13967761362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>13968745935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>13967795812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>13967795422</v>
+        <v>13967722182</v>
       </c>
     </row>
   </sheetData>
